--- a/03_decision/2024.12.AMTM/01.scoping.xlsx
+++ b/03_decision/2024.12.AMTM/01.scoping.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\X\03_decision\2024.12.AMTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6544E-3F18-4AE0-A29E-E6219C2DB421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940DD015-D71D-4571-8686-B8C46D9D98CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15360" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cover.page" sheetId="1" r:id="rId1"/>
-    <sheet name="s&amp;p" sheetId="2" r:id="rId2"/>
-    <sheet name="trading.view" sheetId="3" r:id="rId3"/>
-    <sheet name="moodys" sheetId="4" r:id="rId4"/>
-    <sheet name="s.a" sheetId="5" r:id="rId5"/>
+    <sheet name="cover.page" sheetId="6" r:id="rId1"/>
+    <sheet name="cover.page_archived" sheetId="1" r:id="rId2"/>
+    <sheet name="s&amp;p" sheetId="2" r:id="rId3"/>
+    <sheet name="trading.view" sheetId="3" r:id="rId4"/>
+    <sheet name="moodys" sheetId="4" r:id="rId5"/>
+    <sheet name="s.a" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="262">
   <si>
     <t>define the industry and competitors</t>
   </si>
@@ -687,13 +688,178 @@
   </si>
   <si>
     <t>NAICS</t>
+  </si>
+  <si>
+    <t>Define the peer group</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>It’s about Amentum NYSE:AMTM</t>
+  </si>
+  <si>
+    <t>List of top competitors show their IRS EIN and ticker and exchange</t>
+  </si>
+  <si>
+    <t>save the outcome in spreadsheet</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>EIN</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>20-3562868</t>
+  </si>
+  <si>
+    <t>Science Applications International Corporation (SAIC)</t>
+  </si>
+  <si>
+    <t>46-3509666</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>Booz Allen Hamilton Holding Corporation</t>
+  </si>
+  <si>
+    <t>36-2513626</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>Jacobs Solutions Inc.</t>
+  </si>
+  <si>
+    <t>95-4081636</t>
+  </si>
+  <si>
+    <t>Parsons Corporation</t>
+  </si>
+  <si>
+    <t>95-2580851</t>
+  </si>
+  <si>
+    <t>PSN</t>
+  </si>
+  <si>
+    <t>KBR, Inc.</t>
+  </si>
+  <si>
+    <t>54-1899442</t>
+  </si>
+  <si>
+    <t>KBR</t>
+  </si>
+  <si>
+    <t>General Dynamics Information Technology (GDIT)</t>
+  </si>
+  <si>
+    <t>54-1194322</t>
+  </si>
+  <si>
+    <t>95-4840775</t>
+  </si>
+  <si>
+    <t>Raytheon Technologies Corporation</t>
+  </si>
+  <si>
+    <t>06-0570975</t>
+  </si>
+  <si>
+    <t>ManTech International Corporation</t>
+  </si>
+  <si>
+    <t>22-1852179</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Privately held</t>
+  </si>
+  <si>
+    <t>Huntington Ingalls Industries (HII)</t>
+  </si>
+  <si>
+    <t>90-0607005</t>
+  </si>
+  <si>
+    <t>Fluor Corporation</t>
+  </si>
+  <si>
+    <t>33-0927079</t>
+  </si>
+  <si>
+    <t>FLR</t>
+  </si>
+  <si>
+    <t>CACI International Inc</t>
+  </si>
+  <si>
+    <t>54-1345888</t>
+  </si>
+  <si>
+    <t>CACI</t>
+  </si>
+  <si>
+    <t>Peraton Inc.</t>
+  </si>
+  <si>
+    <t>81-5224276</t>
+  </si>
+  <si>
+    <t>Construction and Engineering</t>
+  </si>
+  <si>
+    <t>Aerospace and Defense</t>
+  </si>
+  <si>
+    <t>Miscellaneous commercial services</t>
+  </si>
+  <si>
+    <t>Information technology services</t>
+  </si>
+  <si>
+    <t>Data processing services</t>
+  </si>
+  <si>
+    <t>Engineering &amp; construction</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Source: S&amp;P</t>
+  </si>
+  <si>
+    <t>Source: TradingView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add industry </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,8 +881,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,8 +903,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -818,11 +998,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -890,6 +1085,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,10 +1583,663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D4D8B9-8584-4E23-AC70-6698638EB8AC}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
+      <c r="C26" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="40"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="40"/>
+      <c r="C28" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="40"/>
+      <c r="C29" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="40"/>
+      <c r="C30" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="40"/>
+      <c r="C31" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="I31" s="45"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="40"/>
+      <c r="C32" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="40"/>
+      <c r="C33" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="I33" s="45"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="40"/>
+      <c r="C34" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="I34" s="45"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="40"/>
+      <c r="C35" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="45"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="40"/>
+      <c r="C36" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="45"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="40"/>
+      <c r="C37" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="40"/>
+      <c r="C38" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="40"/>
+      <c r="C39" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="40"/>
+      <c r="C40" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" s="45"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="40"/>
+      <c r="C41" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" s="45"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="40"/>
+      <c r="C42" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="41"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G27:H27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +2670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EF3921-C75A-4565-B611-8E180BD60100}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -2593,7 +3474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A466F2E-EB1D-4C4A-8BE7-C96ECFEA6790}">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -3812,7 +4693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B6D150-1F2C-4C9D-AF5B-633B147F0772}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3824,7 +4705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C7DDFC-A313-43EB-9245-DB5167073DAA}">
   <dimension ref="A1"/>
   <sheetViews>
